--- a/samples/data/test.xlsx
+++ b/samples/data/test.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11895" windowHeight="5370"/>
+    <workbookView windowWidth="13815" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="testcase" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>事件</t>
   </si>
@@ -61,6 +61,69 @@
   </si>
   <si>
     <t>java应用</t>
+  </si>
+  <si>
+    <t>测试用例编号</t>
+  </si>
+  <si>
+    <t>测试用例名称</t>
+  </si>
+  <si>
+    <t>测试执行</t>
+  </si>
+  <si>
+    <t>测试步骤</t>
+  </si>
+  <si>
+    <t>case01</t>
+  </si>
+  <si>
+    <t>名称1</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>case02</t>
+  </si>
+  <si>
+    <t>名称2</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>case03</t>
+  </si>
+  <si>
+    <t>名称3</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>单位名称</t>
+  </si>
+  <si>
+    <t>职位代码</t>
+  </si>
+  <si>
+    <t>职位名称</t>
+  </si>
+  <si>
+    <t>招录人数</t>
+  </si>
+  <si>
+    <t>报考人数</t>
+  </si>
+  <si>
+    <t>省级单位</t>
+  </si>
+  <si>
+    <t>警官</t>
+  </si>
+  <si>
+    <t>保安</t>
   </si>
 </sst>
 </file>
@@ -70,8 +133,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +152,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -105,12 +175,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -118,45 +196,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,46 +236,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -220,7 +245,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,79 +298,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,103 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,20 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,21 +536,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +565,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -534,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,7 +1093,7 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1159,14 +1222,93 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1176,14 +1318,100 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>57688</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>57689</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>57690</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
